--- a/table liquid.xlsx
+++ b/table liquid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Window\Desktop\comaid\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC01493-34FF-4862-B32C-CA4AA9E2C2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6014C1D-7B9D-4AED-B3C5-D54F86D7BC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="6" xr2:uid="{B613E05C-A9C4-4421-AA9E-67E7DDD5DE8C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="2" activeTab="7" xr2:uid="{B613E05C-A9C4-4421-AA9E-67E7DDD5DE8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Oil (Unused)" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,8 @@
     <sheet name="Refrigerant-22" sheetId="5" r:id="rId5"/>
     <sheet name="Mercury" sheetId="6" r:id="rId6"/>
     <sheet name="Saturated Water(liquid)" sheetId="9" r:id="rId7"/>
+    <sheet name="other" sheetId="10" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
   <si>
     <t>T</t>
   </si>
@@ -408,303 +406,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="water fluid"/>
-      <sheetName val="water gas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>9.9900099900099922E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>9.9800399201596798E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>9.9700897308075786E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>9.950248756218907E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>9.9304865938431002E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>9.910802775024779E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>9.8911968348170147E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>9.8716683119447202E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>9.8425196850393699E-4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="K17">
-            <v>9.8231827111984276E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="K18">
-            <v>9.7943192948090111E-4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>9.765625E-4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20">
-            <v>9.7370983446932818E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>9.7087378640776695E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>9.6711798839458415E-4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>9.6339113680154141E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>9.6061479346781938E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>9.5785440613026815E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>9.5693779904306223E-4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>9.5328884652049568E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>9.4966761633428305E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>9.4517958412098301E-4</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>9.372071227741331E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>9.2850510677808728E-4</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>9.1911764705882352E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="K33">
-            <v>9.099181073703367E-4</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>9.0090090090090091E-4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="K35">
-            <v>8.9047195013357077E-4</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="K36">
-            <v>8.7950747581354446E-4</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="K37">
-            <v>8.6805555555555551E-4</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="K38">
-            <v>8.5689802913453304E-4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="K39">
-            <v>8.4459459459459464E-4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="K40">
-            <v>8.3125519534497092E-4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="K41">
-            <v>8.1833060556464816E-4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="K42">
-            <v>8.0385852090032153E-4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="K43">
-            <v>7.8864353312302837E-4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="K44">
-            <v>7.7279752704791343E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="K45">
-            <v>7.5585789871504159E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="K46">
-            <v>7.3800738007380072E-4</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="K47">
-            <v>7.1839080459770114E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="K48">
-            <v>6.9783670621074664E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="K49">
-            <v>6.7476383265856947E-4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="K50">
-            <v>6.4892926670992858E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="K51">
-            <v>6.2034739454094293E-4</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="K52">
-            <v>5.8651026392961877E-4</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="K53">
-            <v>5.6242969628796406E-4</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="K54">
-            <v>5.3879310344827585E-4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="K55">
-            <v>5.1679586563307489E-4</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="K56">
-            <v>4.8192771084337347E-4</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="K57">
-            <v>4.253509145044662E-4</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="K58">
-            <v>3.1545741324921138E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4">
-            <v>206.3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3728,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C49DFD4-3706-4D25-97EF-25E6EA8714B7}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -3798,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="C3" s="19">
         <v>1</v>
@@ -3807,8 +3508,7 @@
         <v>1000000</v>
       </c>
       <c r="E3" s="19">
-        <f>10^6</f>
-        <v>1000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F3" s="19">
         <v>1000</v>
@@ -3828,7 +3528,7 @@
         <v>273.14999999999998</v>
       </c>
       <c r="B4" s="23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="25">
         <v>4.2169999999999996</v>
@@ -3837,8 +3537,7 @@
         <v>1750</v>
       </c>
       <c r="E4" s="23">
-        <f>(('Saturated Water(liquid)'!D4*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K4)/$E$3</f>
-        <v>1750000</v>
+        <v>1750</v>
       </c>
       <c r="F4" s="21">
         <v>569</v>
@@ -3858,7 +3557,7 @@
         <v>275</v>
       </c>
       <c r="B5" s="23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="25">
         <v>4.2110000000000003</v>
@@ -3867,8 +3566,7 @@
         <v>1652</v>
       </c>
       <c r="E5" s="23">
-        <f>(('Saturated Water(liquid)'!D5*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K5)/$E$3</f>
-        <v>1652000</v>
+        <v>1652</v>
       </c>
       <c r="F5" s="21">
         <v>574</v>
@@ -3888,7 +3586,7 @@
         <v>280</v>
       </c>
       <c r="B6" s="23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="25">
         <v>4.1980000000000004</v>
@@ -3897,8 +3595,7 @@
         <v>1422</v>
       </c>
       <c r="E6" s="23">
-        <f>(('Saturated Water(liquid)'!D6*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K6)/$E$3</f>
-        <v>1422000</v>
+        <v>1422</v>
       </c>
       <c r="F6" s="21">
         <v>582</v>
@@ -3918,7 +3615,7 @@
         <v>285</v>
       </c>
       <c r="B7" s="23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="25">
         <v>4.1890000000000001</v>
@@ -3927,8 +3624,7 @@
         <v>1225</v>
       </c>
       <c r="E7" s="23">
-        <f>(('Saturated Water(liquid)'!D7*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K7)/$E$3</f>
-        <v>1225000</v>
+        <v>1225</v>
       </c>
       <c r="F7" s="21">
         <v>590</v>
@@ -3948,7 +3644,7 @@
         <v>290</v>
       </c>
       <c r="B8" s="23">
-        <v>9.9900099900099922E-4</v>
+        <v>0.99900099900099915</v>
       </c>
       <c r="C8" s="25">
         <v>4.1840000000000002</v>
@@ -3957,8 +3653,7 @@
         <v>1080</v>
       </c>
       <c r="E8" s="23">
-        <f>(('Saturated Water(liquid)'!D8*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K8)/$E$3</f>
-        <v>1081079.9999999998</v>
+        <v>1081.08</v>
       </c>
       <c r="F8" s="21">
         <v>598</v>
@@ -3978,7 +3673,7 @@
         <v>295</v>
       </c>
       <c r="B9" s="23">
-        <v>9.9800399201596798E-4</v>
+        <v>0.99800399201596801</v>
       </c>
       <c r="C9" s="25">
         <v>4.181</v>
@@ -3987,8 +3682,7 @@
         <v>959</v>
       </c>
       <c r="E9" s="23">
-        <f>(('Saturated Water(liquid)'!D9*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K9)/$E$3</f>
-        <v>960918.00000000012</v>
+        <v>960.91800000000001</v>
       </c>
       <c r="F9" s="21">
         <v>606</v>
@@ -4008,7 +3702,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="23">
-        <v>9.9700897308075786E-4</v>
+        <v>0.99700897308075787</v>
       </c>
       <c r="C10" s="25">
         <v>4.1790000000000003</v>
@@ -4017,8 +3711,7 @@
         <v>855</v>
       </c>
       <c r="E10" s="23">
-        <f>(('Saturated Water(liquid)'!D10*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K10)/$E$3</f>
-        <v>857564.99999999988</v>
+        <v>857.56499999999983</v>
       </c>
       <c r="F10" s="21">
         <v>613</v>
@@ -4038,7 +3731,7 @@
         <v>305</v>
       </c>
       <c r="B11" s="23">
-        <v>9.950248756218907E-4</v>
+        <v>0.99502487562189068</v>
       </c>
       <c r="C11" s="25">
         <v>4.1779999999999999</v>
@@ -4047,8 +3740,7 @@
         <v>769</v>
       </c>
       <c r="E11" s="23">
-        <f>(('Saturated Water(liquid)'!D11*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K11)/$E$3</f>
-        <v>772844.99999999988</v>
+        <v>772.84499999999991</v>
       </c>
       <c r="F11" s="21">
         <v>620</v>
@@ -4068,7 +3760,7 @@
         <v>310</v>
       </c>
       <c r="B12" s="23">
-        <v>9.9304865938431002E-4</v>
+        <v>0.99304865938430997</v>
       </c>
       <c r="C12" s="25">
         <v>4.1779999999999999</v>
@@ -4077,8 +3769,7 @@
         <v>695</v>
       </c>
       <c r="E12" s="23">
-        <f>(('Saturated Water(liquid)'!D12*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K12)/$E$3</f>
-        <v>699864.99999999988</v>
+        <v>699.8649999999999</v>
       </c>
       <c r="F12" s="21">
         <v>628</v>
@@ -4098,7 +3789,7 @@
         <v>315</v>
       </c>
       <c r="B13" s="23">
-        <v>9.910802775024779E-4</v>
+        <v>0.99108027750247785</v>
       </c>
       <c r="C13" s="25">
         <v>4.1790000000000003</v>
@@ -4107,8 +3798,7 @@
         <v>631</v>
       </c>
       <c r="E13" s="23">
-        <f>(('Saturated Water(liquid)'!D13*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K13)/$E$3</f>
-        <v>636678.99999999988</v>
+        <v>636.67899999999986</v>
       </c>
       <c r="F13" s="21">
         <v>634</v>
@@ -4128,7 +3818,7 @@
         <v>320</v>
       </c>
       <c r="B14" s="23">
-        <v>9.8911968348170147E-4</v>
+        <v>0.98911968348170143</v>
       </c>
       <c r="C14" s="25">
         <v>4.18</v>
@@ -4137,8 +3827,7 @@
         <v>577</v>
       </c>
       <c r="E14" s="23">
-        <f>(('Saturated Water(liquid)'!D14*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K14)/$E$3</f>
-        <v>583346.99999999988</v>
+        <v>583.34699999999987</v>
       </c>
       <c r="F14" s="21">
         <v>640</v>
@@ -4158,7 +3847,7 @@
         <v>325</v>
       </c>
       <c r="B15" s="23">
-        <v>9.8716683119447202E-4</v>
+        <v>0.98716683119447202</v>
       </c>
       <c r="C15" s="25">
         <v>4.1820000000000004</v>
@@ -4167,8 +3856,7 @@
         <v>528</v>
       </c>
       <c r="E15" s="23">
-        <f>(('Saturated Water(liquid)'!D15*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K15)/$E$3</f>
-        <v>534863.99999999988</v>
+        <v>534.86399999999992</v>
       </c>
       <c r="F15" s="21">
         <v>645</v>
@@ -4188,7 +3876,7 @@
         <v>330</v>
       </c>
       <c r="B16" s="23">
-        <v>9.8425196850393699E-4</v>
+        <v>0.98425196850393704</v>
       </c>
       <c r="C16" s="25">
         <v>4.1840000000000002</v>
@@ -4197,8 +3885,7 @@
         <v>489</v>
       </c>
       <c r="E16" s="23">
-        <f>(('Saturated Water(liquid)'!D16*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K16)/$E$3</f>
-        <v>496824</v>
+        <v>496.82400000000001</v>
       </c>
       <c r="F16" s="21">
         <v>650</v>
@@ -4218,7 +3905,7 @@
         <v>335</v>
       </c>
       <c r="B17" s="23">
-        <v>9.8231827111984276E-4</v>
+        <v>0.98231827111984282</v>
       </c>
       <c r="C17" s="25">
         <v>4.1859999999999999</v>
@@ -4227,8 +3914,7 @@
         <v>453</v>
       </c>
       <c r="E17" s="23">
-        <f>(('Saturated Water(liquid)'!D17*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K17)/$E$3</f>
-        <v>461154.00000000006</v>
+        <v>461.154</v>
       </c>
       <c r="F17" s="21">
         <v>656</v>
@@ -4248,7 +3934,7 @@
         <v>340</v>
       </c>
       <c r="B18" s="23">
-        <v>9.7943192948090111E-4</v>
+        <v>0.97943192948090119</v>
       </c>
       <c r="C18" s="25">
         <v>4.1879999999999997</v>
@@ -4257,8 +3943,7 @@
         <v>420</v>
       </c>
       <c r="E18" s="23">
-        <f>(('Saturated Water(liquid)'!D18*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K18)/$E$3</f>
-        <v>428820</v>
+        <v>428.81999999999994</v>
       </c>
       <c r="F18" s="21">
         <v>660</v>
@@ -4278,7 +3963,7 @@
         <v>345</v>
       </c>
       <c r="B19" s="23">
-        <v>9.765625E-4</v>
+        <v>0.9765625</v>
       </c>
       <c r="C19" s="25">
         <v>4.1909999999999998</v>
@@ -4287,8 +3972,7 @@
         <v>389</v>
       </c>
       <c r="E19" s="23">
-        <f>(('Saturated Water(liquid)'!D19*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K19)/$E$3</f>
-        <v>398336</v>
+        <v>398.33600000000001</v>
       </c>
       <c r="F19" s="21">
         <v>664</v>
@@ -4308,7 +3992,7 @@
         <v>350</v>
       </c>
       <c r="B20" s="23">
-        <v>9.7370983446932818E-4</v>
+        <v>0.97370983446932824</v>
       </c>
       <c r="C20" s="25">
         <v>4.1950000000000003</v>
@@ -4317,8 +4001,7 @@
         <v>365</v>
       </c>
       <c r="E20" s="23">
-        <f>(('Saturated Water(liquid)'!D20*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K20)/$E$3</f>
-        <v>374855</v>
+        <v>374.85499999999996</v>
       </c>
       <c r="F20" s="21">
         <v>668</v>
@@ -4338,7 +4021,7 @@
         <v>355</v>
       </c>
       <c r="B21" s="23">
-        <v>9.7087378640776695E-4</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C21" s="25">
         <v>4.1989999999999998</v>
@@ -4347,8 +4030,7 @@
         <v>343</v>
       </c>
       <c r="E21" s="23">
-        <f>(('Saturated Water(liquid)'!D21*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K21)/$E$3</f>
-        <v>353290</v>
+        <v>353.29</v>
       </c>
       <c r="F21" s="21">
         <v>671</v>
@@ -4368,7 +4050,7 @@
         <v>360</v>
       </c>
       <c r="B22" s="23">
-        <v>9.6711798839458415E-4</v>
+        <v>0.96711798839458407</v>
       </c>
       <c r="C22" s="25">
         <v>4.2030000000000003</v>
@@ -4377,8 +4059,7 @@
         <v>324</v>
       </c>
       <c r="E22" s="23">
-        <f>(('Saturated Water(liquid)'!D22*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K22)/$E$3</f>
-        <v>335016</v>
+        <v>335.01600000000002</v>
       </c>
       <c r="F22" s="21">
         <v>674</v>
@@ -4398,7 +4079,7 @@
         <v>365</v>
       </c>
       <c r="B23" s="23">
-        <v>9.6339113680154141E-4</v>
+        <v>0.96339113680154143</v>
       </c>
       <c r="C23" s="25">
         <v>4.2089999999999996</v>
@@ -4407,8 +4088,7 @@
         <v>306</v>
       </c>
       <c r="E23" s="23">
-        <f>(('Saturated Water(liquid)'!D23*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K23)/$E$3</f>
-        <v>317628</v>
+        <v>317.62799999999999</v>
       </c>
       <c r="F23" s="21">
         <v>677</v>
@@ -4428,7 +4108,7 @@
         <v>370</v>
       </c>
       <c r="B24" s="23">
-        <v>9.6061479346781938E-4</v>
+        <v>0.96061479346781953</v>
       </c>
       <c r="C24" s="25">
         <v>4.2140000000000004</v>
@@ -4437,8 +4117,7 @@
         <v>289</v>
       </c>
       <c r="E24" s="23">
-        <f>(('Saturated Water(liquid)'!D24*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K24)/$E$3</f>
-        <v>300849</v>
+        <v>300.84899999999999</v>
       </c>
       <c r="F24" s="21">
         <v>679</v>
@@ -4458,7 +4137,7 @@
         <v>373.15</v>
       </c>
       <c r="B25" s="23">
-        <v>9.5785440613026815E-4</v>
+        <v>0.95785440613026818</v>
       </c>
       <c r="C25" s="25">
         <v>4.2169999999999996</v>
@@ -4467,8 +4146,7 @@
         <v>279</v>
       </c>
       <c r="E25" s="23">
-        <f>(('Saturated Water(liquid)'!D25*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K25)/$E$3</f>
-        <v>291276</v>
+        <v>291.27600000000001</v>
       </c>
       <c r="F25" s="21">
         <v>680</v>
@@ -4488,7 +4166,7 @@
         <v>375</v>
       </c>
       <c r="B26" s="23">
-        <v>9.5693779904306223E-4</v>
+        <v>0.95693779904306231</v>
       </c>
       <c r="C26" s="25">
         <v>4.22</v>
@@ -4497,8 +4175,7 @@
         <v>274</v>
       </c>
       <c r="E26" s="23">
-        <f>(('Saturated Water(liquid)'!D26*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K26)/$E$3</f>
-        <v>286330</v>
+        <v>286.33</v>
       </c>
       <c r="F26" s="21">
         <v>681</v>
@@ -4518,7 +4195,7 @@
         <v>380</v>
       </c>
       <c r="B27" s="23">
-        <v>9.5328884652049568E-4</v>
+        <v>0.95328884652049573</v>
       </c>
       <c r="C27" s="25">
         <v>4.226</v>
@@ -4527,8 +4204,7 @@
         <v>260</v>
       </c>
       <c r="E27" s="23">
-        <f>(('Saturated Water(liquid)'!D27*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K27)/$E$3</f>
-        <v>272740</v>
+        <v>272.74</v>
       </c>
       <c r="F27" s="21">
         <v>683</v>
@@ -4548,7 +4224,7 @@
         <v>385</v>
       </c>
       <c r="B28" s="23">
-        <v>9.4966761633428305E-4</v>
+        <v>0.94966761633428309</v>
       </c>
       <c r="C28" s="25">
         <v>4.2320000000000002</v>
@@ -4557,8 +4233,7 @@
         <v>248</v>
       </c>
       <c r="E28" s="23">
-        <f>(('Saturated Water(liquid)'!D28*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K28)/$E$3</f>
-        <v>261144</v>
+        <v>261.14399999999995</v>
       </c>
       <c r="F28" s="21">
         <v>685</v>
@@ -4578,7 +4253,7 @@
         <v>390</v>
       </c>
       <c r="B29" s="23">
-        <v>9.4517958412098301E-4</v>
+        <v>0.94517958412098291</v>
       </c>
       <c r="C29" s="25">
         <v>4.2389999999999999</v>
@@ -4587,8 +4262,7 @@
         <v>237</v>
       </c>
       <c r="E29" s="23">
-        <f>(('Saturated Water(liquid)'!D29*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K29)/$E$3</f>
-        <v>250746</v>
+        <v>250.74600000000001</v>
       </c>
       <c r="F29" s="21">
         <v>686</v>
@@ -4608,7 +4282,7 @@
         <v>400</v>
       </c>
       <c r="B30" s="23">
-        <v>9.372071227741331E-4</v>
+        <v>0.93720712277413309</v>
       </c>
       <c r="C30" s="25">
         <v>4.2560000000000002</v>
@@ -4617,8 +4291,7 @@
         <v>217</v>
       </c>
       <c r="E30" s="23">
-        <f>(('Saturated Water(liquid)'!D30*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K30)/$E$3</f>
-        <v>231539</v>
+        <v>231.53899999999999</v>
       </c>
       <c r="F30" s="21">
         <v>688</v>
@@ -4638,7 +4311,7 @@
         <v>410</v>
       </c>
       <c r="B31" s="23">
-        <v>9.2850510677808728E-4</v>
+        <v>0.92850510677808729</v>
       </c>
       <c r="C31" s="25">
         <v>4.2779999999999996</v>
@@ -4647,8 +4320,7 @@
         <v>200</v>
       </c>
       <c r="E31" s="23">
-        <f>(('Saturated Water(liquid)'!D31*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K31)/$E$3</f>
-        <v>215400</v>
+        <v>215.4</v>
       </c>
       <c r="F31" s="21">
         <v>688</v>
@@ -4668,7 +4340,7 @@
         <v>420</v>
       </c>
       <c r="B32" s="23">
-        <v>9.1911764705882352E-4</v>
+        <v>0.91911764705882348</v>
       </c>
       <c r="C32" s="25">
         <v>4.3019999999999996</v>
@@ -4677,8 +4349,7 @@
         <v>185</v>
       </c>
       <c r="E32" s="23">
-        <f>(('Saturated Water(liquid)'!D32*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K32)/$E$3</f>
-        <v>201280</v>
+        <v>201.28</v>
       </c>
       <c r="F32" s="21">
         <v>688</v>
@@ -4698,7 +4369,7 @@
         <v>430</v>
       </c>
       <c r="B33" s="23">
-        <v>9.099181073703367E-4</v>
+        <v>0.90991810737033674</v>
       </c>
       <c r="C33" s="25">
         <v>4.3310000000000004</v>
@@ -4707,8 +4378,7 @@
         <v>173</v>
       </c>
       <c r="E33" s="23">
-        <f>(('Saturated Water(liquid)'!D33*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K33)/$E$3</f>
-        <v>190127</v>
+        <v>190.12699999999998</v>
       </c>
       <c r="F33" s="21">
         <v>685</v>
@@ -4726,7 +4396,7 @@
         <v>440</v>
       </c>
       <c r="B34" s="23">
-        <v>9.0090090090090091E-4</v>
+        <v>0.9009009009009008</v>
       </c>
       <c r="C34" s="20">
         <v>4.3600000000000003</v>
@@ -4735,8 +4405,7 @@
         <v>162</v>
       </c>
       <c r="E34" s="23">
-        <f>(('Saturated Water(liquid)'!D34*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K34)/$E$3</f>
-        <v>179820</v>
+        <v>179.82000000000002</v>
       </c>
       <c r="F34" s="21">
         <v>682</v>
@@ -4753,7 +4422,7 @@
         <v>450</v>
       </c>
       <c r="B35" s="23">
-        <v>8.9047195013357077E-4</v>
+        <v>0.89047195013357083</v>
       </c>
       <c r="C35" s="20">
         <v>4.4000000000000004</v>
@@ -4762,8 +4431,7 @@
         <v>152</v>
       </c>
       <c r="E35" s="23">
-        <f>(('Saturated Water(liquid)'!D35*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K35)/$E$3</f>
-        <v>170696</v>
+        <v>170.696</v>
       </c>
       <c r="F35" s="21">
         <v>678</v>
@@ -4780,7 +4448,7 @@
         <v>460</v>
       </c>
       <c r="B36" s="23">
-        <v>8.7950747581354446E-4</v>
+        <v>0.87950747581354438</v>
       </c>
       <c r="C36" s="20">
         <v>4.4400000000000004</v>
@@ -4789,8 +4457,7 @@
         <v>143</v>
       </c>
       <c r="E36" s="23">
-        <f>(('Saturated Water(liquid)'!D36*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K36)/$E$3</f>
-        <v>162591</v>
+        <v>162.59100000000001</v>
       </c>
       <c r="F36" s="21">
         <v>673</v>
@@ -4807,7 +4474,7 @@
         <v>470</v>
       </c>
       <c r="B37" s="23">
-        <v>8.6805555555555551E-4</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="C37" s="20">
         <v>4.4800000000000004</v>
@@ -4816,8 +4483,7 @@
         <v>136</v>
       </c>
       <c r="E37" s="23">
-        <f>(('Saturated Water(liquid)'!D37*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K37)/$E$3</f>
-        <v>156672</v>
+        <v>156.672</v>
       </c>
       <c r="F37" s="21">
         <v>667</v>
@@ -4834,7 +4500,7 @@
         <v>480</v>
       </c>
       <c r="B38" s="23">
-        <v>8.5689802913453304E-4</v>
+        <v>0.85689802913453295</v>
       </c>
       <c r="C38" s="20">
         <v>4.53</v>
@@ -4843,8 +4509,7 @@
         <v>129</v>
       </c>
       <c r="E38" s="23">
-        <f>(('Saturated Water(liquid)'!D38*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K38)/$E$3</f>
-        <v>150543</v>
+        <v>150.54300000000001</v>
       </c>
       <c r="F38" s="21">
         <v>660</v>
@@ -4861,7 +4526,7 @@
         <v>490</v>
       </c>
       <c r="B39" s="23">
-        <v>8.4459459459459464E-4</v>
+        <v>0.84459459459459463</v>
       </c>
       <c r="C39" s="20">
         <v>4.59</v>
@@ -4870,8 +4535,7 @@
         <v>124</v>
       </c>
       <c r="E39" s="23">
-        <f>(('Saturated Water(liquid)'!D39*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K39)/$E$3</f>
-        <v>146816</v>
+        <v>146.816</v>
       </c>
       <c r="F39" s="21">
         <v>651</v>
@@ -4891,7 +4555,7 @@
         <v>500</v>
       </c>
       <c r="B40" s="23">
-        <v>8.3125519534497092E-4</v>
+        <v>0.83125519534497083</v>
       </c>
       <c r="C40" s="20">
         <v>4.66</v>
@@ -4900,8 +4564,7 @@
         <v>118</v>
       </c>
       <c r="E40" s="23">
-        <f>(('Saturated Water(liquid)'!D40*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K40)/$E$3</f>
-        <v>141954</v>
+        <v>141.95400000000001</v>
       </c>
       <c r="F40" s="21">
         <v>642</v>
@@ -4921,7 +4584,7 @@
         <v>510</v>
       </c>
       <c r="B41" s="23">
-        <v>8.1833060556464816E-4</v>
+        <v>0.81833060556464809</v>
       </c>
       <c r="C41" s="20">
         <v>4.74</v>
@@ -4930,8 +4593,7 @@
         <v>113</v>
       </c>
       <c r="E41" s="23">
-        <f>(('Saturated Water(liquid)'!D41*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K41)/$E$3</f>
-        <v>138086</v>
+        <v>138.08600000000001</v>
       </c>
       <c r="F41" s="21">
         <v>631</v>
@@ -4951,7 +4613,7 @@
         <v>520</v>
       </c>
       <c r="B42" s="23">
-        <v>8.0385852090032153E-4</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="C42" s="20">
         <v>4.84</v>
@@ -4960,8 +4622,7 @@
         <v>108</v>
       </c>
       <c r="E42" s="23">
-        <f>(('Saturated Water(liquid)'!D42*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K42)/$E$3</f>
-        <v>134352</v>
+        <v>134.352</v>
       </c>
       <c r="F42" s="21">
         <v>621</v>
@@ -4981,7 +4642,7 @@
         <v>530</v>
       </c>
       <c r="B43" s="23">
-        <v>7.8864353312302837E-4</v>
+        <v>0.78864353312302837</v>
       </c>
       <c r="C43" s="20">
         <v>4.95</v>
@@ -4990,8 +4651,7 @@
         <v>104</v>
       </c>
       <c r="E43" s="23">
-        <f>(('Saturated Water(liquid)'!D43*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K43)/$E$3</f>
-        <v>131872</v>
+        <v>131.87200000000001</v>
       </c>
       <c r="F43" s="21">
         <v>608</v>
@@ -5011,7 +4671,7 @@
         <v>540</v>
       </c>
       <c r="B44" s="23">
-        <v>7.7279752704791343E-4</v>
+        <v>0.77279752704791338</v>
       </c>
       <c r="C44" s="20">
         <v>5.08</v>
@@ -5020,8 +4680,7 @@
         <v>101</v>
       </c>
       <c r="E44" s="23">
-        <f>(('Saturated Water(liquid)'!D44*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K44)/$E$3</f>
-        <v>130694</v>
+        <v>130.69400000000002</v>
       </c>
       <c r="F44" s="21">
         <v>594</v>
@@ -5041,7 +4700,7 @@
         <v>550</v>
       </c>
       <c r="B45" s="23">
-        <v>7.5585789871504159E-4</v>
+        <v>0.75585789871504161</v>
       </c>
       <c r="C45" s="20">
         <v>5.24</v>
@@ -5050,8 +4709,7 @@
         <v>97</v>
       </c>
       <c r="E45" s="23">
-        <f>(('Saturated Water(liquid)'!D45*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K45)/$E$3</f>
-        <v>128331</v>
+        <v>128.33099999999999</v>
       </c>
       <c r="F45" s="21">
         <v>580</v>
@@ -5071,7 +4729,7 @@
         <v>560</v>
       </c>
       <c r="B46" s="23">
-        <v>7.3800738007380072E-4</v>
+        <v>0.73800738007380073</v>
       </c>
       <c r="C46" s="20">
         <v>5.43</v>
@@ -5080,8 +4738,7 @@
         <v>94</v>
       </c>
       <c r="E46" s="23">
-        <f>(('Saturated Water(liquid)'!D46*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K46)/$E$3</f>
-        <v>127370</v>
+        <v>127.37</v>
       </c>
       <c r="F46" s="21">
         <v>563</v>
@@ -5101,7 +4758,7 @@
         <v>570</v>
       </c>
       <c r="B47" s="23">
-        <v>7.1839080459770114E-4</v>
+        <v>0.71839080459770122</v>
       </c>
       <c r="C47" s="20">
         <v>5.68</v>
@@ -5110,8 +4767,7 @@
         <v>91</v>
       </c>
       <c r="E47" s="23">
-        <f>(('Saturated Water(liquid)'!D47*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K47)/$E$3</f>
-        <v>126672</v>
+        <v>126.67199999999998</v>
       </c>
       <c r="F47" s="21">
         <v>548</v>
@@ -5131,7 +4787,7 @@
         <v>580</v>
       </c>
       <c r="B48" s="23">
-        <v>6.9783670621074664E-4</v>
+        <v>0.69783670621074667</v>
       </c>
       <c r="C48" s="20">
         <v>6</v>
@@ -5140,8 +4796,7 @@
         <v>88</v>
       </c>
       <c r="E48" s="23">
-        <f>(('Saturated Water(liquid)'!D48*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K48)/$E$3</f>
-        <v>126104.00000000001</v>
+        <v>126.104</v>
       </c>
       <c r="F48" s="21">
         <v>528</v>
@@ -5161,7 +4816,7 @@
         <v>590</v>
       </c>
       <c r="B49" s="23">
-        <v>6.7476383265856947E-4</v>
+        <v>0.67476383265856954</v>
       </c>
       <c r="C49" s="20">
         <v>6.41</v>
@@ -5170,8 +4825,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="23">
-        <f>(('Saturated Water(liquid)'!D49*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K49)/$E$3</f>
-        <v>124488</v>
+        <v>124.488</v>
       </c>
       <c r="F49" s="21">
         <v>513</v>
@@ -5191,7 +4845,7 @@
         <v>600</v>
       </c>
       <c r="B50" s="23">
-        <v>6.4892926670992858E-4</v>
+        <v>0.64892926670992868</v>
       </c>
       <c r="C50" s="20">
         <v>7</v>
@@ -5200,8 +4854,7 @@
         <v>81</v>
       </c>
       <c r="E50" s="23">
-        <f>(('Saturated Water(liquid)'!D50*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K50)/$E$3</f>
-        <v>124821.00000000001</v>
+        <v>124.82099999999998</v>
       </c>
       <c r="F50" s="21">
         <v>497</v>
@@ -5221,7 +4874,7 @@
         <v>610</v>
       </c>
       <c r="B51" s="23">
-        <v>6.2034739454094293E-4</v>
+        <v>0.6203473945409429</v>
       </c>
       <c r="C51" s="20">
         <v>7.85</v>
@@ -5230,8 +4883,7 @@
         <v>77</v>
       </c>
       <c r="E51" s="23">
-        <f>(('Saturated Water(liquid)'!D51*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K51)/$E$3</f>
-        <v>124124</v>
+        <v>124.12400000000001</v>
       </c>
       <c r="F51" s="21">
         <v>467</v>
@@ -5251,7 +4903,7 @@
         <v>620</v>
       </c>
       <c r="B52" s="23">
-        <v>5.8651026392961877E-4</v>
+        <v>0.58651026392961869</v>
       </c>
       <c r="C52" s="20">
         <v>9.35</v>
@@ -5260,8 +4912,7 @@
         <v>72</v>
       </c>
       <c r="E52" s="23">
-        <f>(('Saturated Water(liquid)'!D52*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K52)/$E$3</f>
-        <v>122760</v>
+        <v>122.76000000000002</v>
       </c>
       <c r="F52" s="21">
         <v>444</v>
@@ -5281,7 +4932,7 @@
         <v>625</v>
       </c>
       <c r="B53" s="23">
-        <v>5.6242969628796406E-4</v>
+        <v>0.56242969628796402</v>
       </c>
       <c r="C53" s="26">
         <v>10.6</v>
@@ -5290,8 +4941,7 @@
         <v>70</v>
       </c>
       <c r="E53" s="23">
-        <f>(('Saturated Water(liquid)'!D53*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K53)/$E$3</f>
-        <v>124459.99999999999</v>
+        <v>124.46</v>
       </c>
       <c r="F53" s="21">
         <v>430</v>
@@ -5311,7 +4961,7 @@
         <v>630</v>
       </c>
       <c r="B54" s="23">
-        <v>5.3879310344827585E-4</v>
+        <v>0.5387931034482758</v>
       </c>
       <c r="C54" s="26">
         <v>12.6</v>
@@ -5320,8 +4970,7 @@
         <v>67</v>
       </c>
       <c r="E54" s="23">
-        <f>(('Saturated Water(liquid)'!D54*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K54)/$E$3</f>
-        <v>124352</v>
+        <v>124.35200000000002</v>
       </c>
       <c r="F54" s="21">
         <v>412</v>
@@ -5341,7 +4990,7 @@
         <v>635</v>
       </c>
       <c r="B55" s="23">
-        <v>5.1679586563307489E-4</v>
+        <v>0.51679586563307489</v>
       </c>
       <c r="C55" s="26">
         <v>16.399999999999999</v>
@@ -5350,8 +4999,7 @@
         <v>64</v>
       </c>
       <c r="E55" s="23">
-        <f>(('Saturated Water(liquid)'!D55*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K55)/$E$3</f>
-        <v>123840.00000000001</v>
+        <v>123.84000000000002</v>
       </c>
       <c r="F55" s="21">
         <v>392</v>
@@ -5371,7 +5019,7 @@
         <v>640</v>
       </c>
       <c r="B56" s="23">
-        <v>4.8192771084337347E-4</v>
+        <v>0.48192771084337344</v>
       </c>
       <c r="C56" s="21">
         <v>26</v>
@@ -5380,8 +5028,7 @@
         <v>59</v>
       </c>
       <c r="E56" s="23">
-        <f>(('Saturated Water(liquid)'!D56*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K56)/$E$3</f>
-        <v>122425</v>
+        <v>122.42500000000001</v>
       </c>
       <c r="F56" s="21">
         <v>367</v>
@@ -5401,7 +5048,7 @@
         <v>645</v>
       </c>
       <c r="B57" s="23">
-        <v>4.253509145044662E-4</v>
+        <v>0.42535091450446622</v>
       </c>
       <c r="C57" s="21">
         <v>90</v>
@@ -5410,8 +5057,7 @@
         <v>54</v>
       </c>
       <c r="E57" s="23">
-        <f>(('Saturated Water(liquid)'!D57*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K57)/$E$3</f>
-        <v>126954</v>
+        <v>126.95399999999999</v>
       </c>
       <c r="F57" s="21">
         <v>331</v>
@@ -5431,7 +5077,7 @@
         <v>647.29999999999995</v>
       </c>
       <c r="B58" s="23">
-        <v>3.1545741324921138E-4</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>21</v>
@@ -5440,8 +5086,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="23">
-        <f>(('Saturated Water(liquid)'!D58*'Saturated Water(liquid)'!$D$3)/'[1]water fluid'!K58)/$E$3</f>
-        <v>142650</v>
+        <v>142.65</v>
       </c>
       <c r="F58" s="21">
         <v>238</v>
@@ -5454,6 +5099,110 @@
       </c>
       <c r="I58" s="23" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68C1440-DA61-4A68-A339-6FD0D66EAA5E}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="11">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="11">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="11">
+        <f>10^7</f>
+        <v>10000000</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <f>10^3</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
